--- a/cost/assets/formatsXlsx/Multiproductos.xlsx
+++ b/cost/assets/formatsXlsx/Multiproductos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>referencia</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>unidades_vendidas</t>
-  </si>
-  <si>
-    <t>gastos</t>
   </si>
 </sst>
 </file>
@@ -56,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -101,15 +98,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -147,15 +135,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -197,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,38 +187,26 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,16 +229,6 @@
     <tableColumn name="referencia" id="1"/>
     <tableColumn name="producto" id="2"/>
     <tableColumn name="unidades_vendidas" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="E1:E2" displayName="Tabla2" name="Tabla2" id="2" totalsRowShown="0">
-  <autoFilter ref="E1:E2"/>
-  <tableColumns count="1">
-    <tableColumn name="gastos1" id="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -565,17 +522,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="27.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
@@ -588,58 +543,41 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>